--- a/public/imports/setting.xlsx
+++ b/public/imports/setting.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
